--- a/Design/Excel/Code.ET/Datas/__tables__.xlsx
+++ b/Design/Excel/Code.ET/Datas/__tables__.xlsx
@@ -121,7 +121,7 @@
     <t>StartConfig+Id</t>
   </si>
   <si>
-    <t>s,e</t>
+    <t>s</t>
   </si>
   <si>
     <t>DTStartProcessConfig</t>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
